--- a/biology/Botanique/Laetisaria_fuciformis/Laetisaria_fuciformis.xlsx
+++ b/biology/Botanique/Laetisaria_fuciformis/Laetisaria_fuciformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laetisaria fuciformis, de son nom vernaculaire, le Fil rouge du gazon (?) est un champignon qui attaque les graminées, essentiellement les fétuques. Il est favorisé par l'air humide, les rosées ainsi que le manque d'azote. On y remédie avec de l'iprodione et un arrosage le matin.
 </t>
@@ -511,7 +523,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maladie cryptogamique</t>
         </is>
